--- a/Homework/03 - Interactive Viz/data/Unemployed_job_seekers_by_month_by_nationality.xlsx
+++ b/Homework/03 - Interactive Viz/data/Unemployed_job_seekers_by_month_by_nationality.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\Cours_EPFL_2017\ADA\Homeworks\ADA2017-project\Homework\03 - Interactive Viz\Data from amstat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\Cours_EPFL_2017\ADA\Homeworks\ADA2017-project\Homework\03 - Interactive Viz\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3642,8 +3642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:AL56"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AO1" sqref="AO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3659,10 +3659,10 @@
         <v>891</v>
       </c>
       <c r="D1" t="s">
+        <v>893</v>
+      </c>
+      <c r="E1" t="s">
         <v>892</v>
-      </c>
-      <c r="E1" t="s">
-        <v>893</v>
       </c>
       <c r="F1" t="s">
         <v>894</v>
@@ -3671,10 +3671,10 @@
         <v>895</v>
       </c>
       <c r="H1" t="s">
+        <v>897</v>
+      </c>
+      <c r="I1" t="s">
         <v>896</v>
-      </c>
-      <c r="I1" t="s">
-        <v>897</v>
       </c>
       <c r="J1" t="s">
         <v>898</v>
@@ -3683,10 +3683,10 @@
         <v>899</v>
       </c>
       <c r="L1" t="s">
+        <v>901</v>
+      </c>
+      <c r="M1" t="s">
         <v>900</v>
-      </c>
-      <c r="M1" t="s">
-        <v>901</v>
       </c>
       <c r="N1" t="s">
         <v>902</v>
@@ -3695,10 +3695,10 @@
         <v>903</v>
       </c>
       <c r="P1" t="s">
+        <v>905</v>
+      </c>
+      <c r="Q1" t="s">
         <v>904</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>905</v>
       </c>
       <c r="R1" t="s">
         <v>906</v>
@@ -3707,10 +3707,10 @@
         <v>907</v>
       </c>
       <c r="T1" t="s">
+        <v>909</v>
+      </c>
+      <c r="U1" t="s">
         <v>908</v>
-      </c>
-      <c r="U1" t="s">
-        <v>909</v>
       </c>
       <c r="V1" t="s">
         <v>910</v>
@@ -3719,10 +3719,10 @@
         <v>911</v>
       </c>
       <c r="X1" t="s">
+        <v>913</v>
+      </c>
+      <c r="Y1" t="s">
         <v>912</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>913</v>
       </c>
       <c r="Z1" t="s">
         <v>914</v>
@@ -3731,10 +3731,10 @@
         <v>915</v>
       </c>
       <c r="AB1" t="s">
+        <v>917</v>
+      </c>
+      <c r="AC1" t="s">
         <v>916</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>917</v>
       </c>
       <c r="AD1" t="s">
         <v>918</v>
@@ -3743,10 +3743,10 @@
         <v>919</v>
       </c>
       <c r="AF1" t="s">
+        <v>921</v>
+      </c>
+      <c r="AG1" t="s">
         <v>920</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>921</v>
       </c>
       <c r="AH1" t="s">
         <v>922</v>
@@ -3755,10 +3755,10 @@
         <v>923</v>
       </c>
       <c r="AJ1" t="s">
+        <v>925</v>
+      </c>
+      <c r="AK1" t="s">
         <v>924</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>925</v>
       </c>
       <c r="AL1" t="s">
         <v>926</v>
